--- a/biology/Histoire de la zoologie et de la botanique/Peter_Carl_Bouché/Peter_Carl_Bouché.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_Carl_Bouché/Peter_Carl_Bouché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peter_Carl_Bouch%C3%A9</t>
+          <t>Peter_Carl_Bouché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Carl Bouché (ou Peter Karl Bouché), né le 21 juillet 1783 à Berlin, et mort dans cette même ville le 27 février 1856, est un jardinier allemand, botaniste et auteur de livres de jardinage et de botanique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peter_Carl_Bouch%C3%A9</t>
+          <t>Peter_Carl_Bouché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Carl Bouché est un rejeton de la dynastie berlinoise des jardiniers Bouché. C'est le premier fils de Jean-David Bouché (1747-1819), et le frère de Carl David Bouché senior (1782–?) et de Peter Friedrich Bouché (1785–1856), ainsi que le père de Carl David Bouché junior (1809–1881) et Karl Emil Bouché (1822–1882).
 Il fut membre fondateur de la Société des paysagistes du royaume de Prusse (de) (1822).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peter_Carl_Bouch%C3%A9</t>
+          <t>Peter_Carl_Bouché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Taxa honorifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En hommage aux frères Peter Carl et Peter Friedrich Bouché, Chamisso baptisa Bouchea (en) un genre de la famille des Verbenaceae. Kunth donna, en 1842, au Mygalum boucheanum (maintenant Ornithogalum boucheanum, Ornithogale de Bouché (de)) son nom d'après celui de Peter Carl Bouché. Schlechtendal, en 1832, baptisa le Gladiolus boucheanus (maintenant Gladiolus palustris Gaud.).
 </t>
